--- a/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-People_living_in_households_w" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>

--- a/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
@@ -293,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -317,6 +317,10 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -359,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -412,6 +416,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -833,7 +840,9 @@
       <c r="A44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="18">
+        <v>21.1</v>
+      </c>
       <c r="C44" s="17">
         <v>21.1</v>
       </c>
@@ -1239,7 +1248,9 @@
       <c r="A68" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="18">
+        <v>4.8</v>
+      </c>
       <c r="C68" s="17">
         <v>4.8</v>
       </c>
@@ -1254,7 +1265,9 @@
       <c r="A69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="18">
+        <v>17.2</v>
+      </c>
       <c r="C69" s="17">
         <v>17.2</v>
       </c>
@@ -1278,14 +1291,14 @@
       <c r="D70" s="17">
         <v>18.1</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="17">
         <v>10.4</v>
       </c>

--- a/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
+++ b/datastatic/datasets/online/D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="D-People_living_in_households_with_very_low_work_intensity_EUROSTAT_2014.csv" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="D-People_living_in_households_w" sheetId="1" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -293,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -317,6 +317,10 @@
     <font>
       <u/>
       <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -359,7 +363,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment/>
     </xf>
@@ -412,6 +416,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -833,7 +840,9 @@
       <c r="A44" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="B44" s="18"/>
+      <c r="B44" s="18">
+        <v>21.1</v>
+      </c>
       <c r="C44" s="17">
         <v>21.1</v>
       </c>
@@ -1239,7 +1248,9 @@
       <c r="A68" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B68" s="18"/>
+      <c r="B68" s="18">
+        <v>4.8</v>
+      </c>
       <c r="C68" s="17">
         <v>4.8</v>
       </c>
@@ -1254,7 +1265,9 @@
       <c r="A69" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B69" s="18"/>
+      <c r="B69" s="18">
+        <v>17.2</v>
+      </c>
       <c r="C69" s="17">
         <v>17.2</v>
       </c>
@@ -1278,14 +1291,14 @@
       <c r="D70" s="17">
         <v>18.1</v>
       </c>
-      <c r="E70" s="18"/>
+      <c r="E70" s="19"/>
     </row>
     <row r="71">
       <c r="A71" s="16" t="s">
         <v>90</v>
       </c>
-      <c r="B71" s="18"/>
-      <c r="C71" s="18"/>
+      <c r="B71" s="19"/>
+      <c r="C71" s="19"/>
       <c r="D71" s="17">
         <v>10.4</v>
       </c>
